--- a/Manual - Implementation.xlsx
+++ b/Manual - Implementation.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/chintala-nandini_chintala-nandini_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1134" documentId="8_{30B348F6-0BCD-42D2-8907-1439CF66C391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A27AFA-63ED-4C3B-AF00-081DCCA61D80}"/>
+  <xr:revisionPtr revIDLastSave="1793" documentId="8_{30B348F6-0BCD-42D2-8907-1439CF66C391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBF8664-37D8-4421-AF74-E42CEE4E16CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{B16BA66E-610C-4F15-9E3B-2C1C94F95B1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="7" activeTab="7" xr2:uid="{B16BA66E-610C-4F15-9E3B-2C1C94F95B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Execution Summary Report1" sheetId="9" r:id="rId2"/>
+    <sheet name="Test Execution Summary Report" sheetId="9" r:id="rId2"/>
     <sheet name="Test Scenarios " sheetId="2" r:id="rId3"/>
     <sheet name="Test Cases" sheetId="3" r:id="rId4"/>
     <sheet name="Defect Report" sheetId="4" r:id="rId5"/>
     <sheet name="RTM" sheetId="5" r:id="rId6"/>
     <sheet name="Summary" sheetId="6" r:id="rId7"/>
+    <sheet name="Report Summary" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,21 +43,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="275">
-  <si>
-    <t>High</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="326">
   <si>
     <t>Test Scenario ID</t>
   </si>
   <si>
     <t>Test Scenario Description</t>
-  </si>
-  <si>
-    <t>TS_Ixigo_SearchPage_01</t>
-  </si>
-  <si>
-    <t>TS_Ixigo_TrackerPage_01</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -93,12 +85,6 @@
   </si>
   <si>
     <t>Status of the test case whether it got passed/ failed/Hold  in interation 1.</t>
-  </si>
-  <si>
-    <t>&lt;Describe the actual test result after execution of test cases second time. In case screenshots need to be attached to substantiate the test result, use the references tab.&gt;</t>
-  </si>
-  <si>
-    <t>New status of test case after it failed in Iteration 1.</t>
   </si>
   <si>
     <t>TC_Ixigo_SearchPage-01</t>
@@ -212,12 +198,6 @@
     <t>It showing error message</t>
   </si>
   <si>
-    <t>TS_Ixigo_SearchPage_02</t>
-  </si>
-  <si>
-    <t>TS_Ixigo_SearchPage_03</t>
-  </si>
-  <si>
     <t>1. Search For flights is done 2.Available flights is displayed 
 on screen</t>
   </si>
@@ -388,9 +368,6 @@
     <t>Defect Summary</t>
   </si>
   <si>
-    <t>Defect Priority</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -401,16 +378,9 @@
 of Ixigo</t>
   </si>
   <si>
-    <t xml:space="preserve">No error message is displayed when an invalid destination is entered; the system defaults to Delhi instead.
-</t>
-  </si>
-  <si>
     <t>abc@capgemini.com</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>BR_ID</t>
   </si>
   <si>
@@ -450,71 +420,12 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Req:Reference</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Actual result Iteration 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(to be updated only if test case failed in Iteration 1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Status Iteration 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(to be updated only if test case failed in Iteration 1)</t>
-    </r>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>BR_Ixigo_SearchPage_01</t>
-  </si>
-  <si>
-    <t>TR_ID_SearchPage_01</t>
-  </si>
-  <si>
-    <t>TR_ID_SearchPage_02</t>
-  </si>
-  <si>
-    <t>BR_Ixigo_SearchPage_02</t>
-  </si>
-  <si>
     <t>DF_Ixigo_SearchPage_01</t>
   </si>
   <si>
-    <t>TR_ID_SearchPage_03</t>
-  </si>
-  <si>
-    <t>BR_Ixigo_SearchPage_03</t>
-  </si>
-  <si>
-    <t>TR_ID_Trackerpage_01</t>
-  </si>
-  <si>
-    <t>TC_Ixigo_TrackerPage-12</t>
-  </si>
-  <si>
     <t>TC_Ixigo_TrackerPage-13</t>
   </si>
   <si>
@@ -522,12 +433,6 @@
   </si>
   <si>
     <t>TC_Ixigo_TrackerPage-15</t>
-  </si>
-  <si>
-    <t>BR_Ixigo_FliterPage_01</t>
-  </si>
-  <si>
-    <t>BR_Ixigo_TrackerPage_01</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -579,9 +484,6 @@
       </rPr>
       <t>TEST EXECUTION SUMMARY</t>
     </r>
-  </si>
-  <si>
-    <t>TS_Ixigo_SearchPage_04</t>
   </si>
   <si>
     <t>TC_Ixigo_SearchPage-07</t>
@@ -709,22 +611,10 @@
 6.click on search</t>
   </si>
   <si>
-    <t>BR_Ixigo_SearchPage_04</t>
-  </si>
-  <si>
-    <t>TR_ID_SearchPage_04</t>
-  </si>
-  <si>
     <t>TC_Ixigo_TrackerPage-16</t>
   </si>
   <si>
     <t>TC_Ixigo_TrackerPage-17</t>
-  </si>
-  <si>
-    <t>TS_Ixigo_Sort_by_Page_01</t>
-  </si>
-  <si>
-    <t>TR_ID_Sort_by_Page_01</t>
   </si>
   <si>
     <t>TC_Ixigo_Sort_by_Page-09</t>
@@ -1145,13 +1035,274 @@
   </si>
   <si>
     <t>Ixigo Flight Booking</t>
+  </si>
+  <si>
+    <t>TC_Ixigo_TrackerPage-18</t>
+  </si>
+  <si>
+    <t>BR_Ixigo_Flight_Booking_01</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Build Version</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight search defaults to "Delhi" when an invalid destination (e.g., "Ananthapur") is entered, instead of showing an error message.
+</t>
+  </si>
+  <si>
+    <t>When searching for flights on Ixigo, if the user enters a destination that is not available in the system (e.g., "Ananthapur"), the application does not display an error message. Instead, it automatically sets the destination to "Delhi," which can lead to incorrect bookings and confusion. The system should validate the entered destination and notify the user if the location is unsupported.</t>
+  </si>
+  <si>
+    <t>Ixigo Flight Search (v5.2)</t>
+  </si>
+  <si>
+    <t>Navigate to the Ixigo flight search page.
+Select from location
+Enter "Ananthapur" in the To (destination) field.
+Select date
+Click Search.</t>
+  </si>
+  <si>
+    <t>The system should display an error message indicating that the entered destination is invalid or not supported.</t>
+  </si>
+  <si>
+    <t>The system defaults the destination to "Delhi" without notifying the user.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Chintala Nandini</t>
+  </si>
+  <si>
+    <t>To be resolved</t>
+  </si>
+  <si>
+    <t>Browsers: Edge, Chrome
+OS: Windows 11</t>
+  </si>
+  <si>
+    <t>Out of Scope:</t>
+  </si>
+  <si>
+    <t>4.Test Metrices:</t>
+  </si>
+  <si>
+    <t>Total number of test cases planned:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Planned</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>1.Test Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                              Test Summary Report format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This document captures the various activities performed as part of Testing the ‘Ixigo Jobs' section.				</t>
+  </si>
+  <si>
+    <t>2.Apllication Overview:</t>
+  </si>
+  <si>
+    <t>Ixigo helps users search and book flights easily. It allows travelers to enter their origin, destination, 
+and travel dates to find available flights. The platform compares fares across airlines and provides 
+options like flexible dates and fare alerts to get the best deals. It aims to make flight 
+booking quick and convenient.</t>
+  </si>
+  <si>
+    <t>3.testing Scope:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Flight Search
+</t>
+  </si>
+  <si>
+    <t>1.Flight Search
+Fare Comparison
+Booking Process
+Payment Gateway Integration
+Date Flexibility Feature
+Fare Alerts
+User Profile &amp; Settings
+Multi-Airline Support</t>
+  </si>
+  <si>
+    <t>2.Fare Comparision</t>
+  </si>
+  <si>
+    <t>3.Booking Process</t>
+  </si>
+  <si>
+    <t>4.Payment Gateway Integration</t>
+  </si>
+  <si>
+    <t>5.Date Flexibility Feature</t>
+  </si>
+  <si>
+    <t>6.Fare Alerts</t>
+  </si>
+  <si>
+    <t>7.User Profile &amp; Settings</t>
+  </si>
+  <si>
+    <t>In_Scope</t>
+  </si>
+  <si>
+    <t>Out of Scope:
+Premium features such as Ixigo Money Wallet and Loyalty Rewards.</t>
+  </si>
+  <si>
+    <t>1.Offers</t>
+  </si>
+  <si>
+    <t>2.Popular Flight routes</t>
+  </si>
+  <si>
+    <t>3.Credit card</t>
+  </si>
+  <si>
+    <t>4.Plan</t>
+  </si>
+  <si>
+    <t>Areas not covered</t>
+  </si>
+  <si>
+    <t>Total number of test cases Executed:</t>
+  </si>
+  <si>
+    <t>Total number of test cases passed:</t>
+  </si>
+  <si>
+    <t>Total number of test cases Failed:</t>
+  </si>
+  <si>
+    <t>[Chintala Nandini:11/11/2025:1:31 AM]
+All the steps were successfully executed,
+and the expected results were achieved.</t>
+  </si>
+  <si>
+    <t>Total test cases passed against failed.</t>
+  </si>
+  <si>
+    <t>Requirement tracebility Matrix</t>
+  </si>
+  <si>
+    <t>5.Types of testing performed</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>Functional testing is a type of software testing that verifies that a system or application functions correctly according to its specifications or requirements. This type of testing focuses on testing the functionality of the software and ensuring that it behaves as expected from the end user's perspective.</t>
+  </si>
+  <si>
+    <t>6.Test Environment and Tools Used:</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tools Used</t>
+  </si>
+  <si>
+    <t>https://www.ixigo.com</t>
+  </si>
+  <si>
+    <t>MS Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encourage users to provide feedback through surveys, polls, to continuously iterate and enhance the Ixigo experience.				</t>
+  </si>
+  <si>
+    <t>7.Recommendations and Suggestions</t>
+  </si>
+  <si>
+    <t>8.Exit Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All the test cases that were planned are executed successfully.				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.No critical defects impacting the core functionality of the website.				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. All the identified issues are documented with clear steps to reproduce and resolve.				</t>
+  </si>
+  <si>
+    <t>9.Sign Off:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering  the nature of the identified defects as low severity and the completion 
+of all planned test cases, the testing team recommends procedding with the release 
+of the "Jobs" module. Further enhancements and defects resolution can be scheduled 
+for subsequent releases.				</t>
+  </si>
+  <si>
+    <t>Epic_01
+Ixigo_Flight Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Application under test</t>
+  </si>
+  <si>
+    <t>All the steps were successfully executed, and the executed results were achieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                    Test Execution Summary Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,13 +1319,6 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1201,8 +1345,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,8 +1415,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1278,12 +1484,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1306,30 +1820,156 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1352,6 +1992,852 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500530</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B98CD6-DB8B-C929-A814-3EA873E02712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF52CB-42D8-0AE6-72E9-B0928A587CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="21371428" cy="5142857"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68296</cdr:x>
+      <cdr:y>0.15249</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93131</cdr:x>
+      <cdr:y>0.58358</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E5D72D-B2A8-ED8B-2E0E-8E98D6795D15}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3862294" y="388469"/>
+          <a:ext cx="1404470" cy="1098177"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" kern="1200"/>
+            <a:t>Passed : 17</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" kern="1200"/>
+            <a:t>Failed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" kern="1200" baseline="0"/>
+            <a:t>  : 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Total :18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,152 +3157,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1725C3DE-3FF5-4D8F-8647-0F97F2740BA2}">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="R5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="3" width="73.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.08984375" customWidth="1"/>
+    <col min="4" max="4" width="83.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1824,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB0689E-A665-414C-A0AE-03C653BB5430}">
-  <dimension ref="A3:I14"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="B1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,41 +3347,54 @@
     <col min="9" max="9" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" t="s">
-        <v>273</v>
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>274</v>
+      <c r="A4" s="27" t="s">
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1891,20 +3408,20 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1918,20 +3435,20 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.5</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>0.5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1945,20 +3462,20 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1972,20 +3489,20 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="27"/>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1999,20 +3516,20 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2026,20 +3543,20 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="27"/>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2053,20 +3570,20 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>1</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2080,20 +3597,20 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2107,20 +3624,20 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2134,20 +3651,20 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="27"/>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2161,19 +3678,20 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2181,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6587F051-73C0-4229-AFA4-ACBD4190CF3A}">
-  <dimension ref="A3:E14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="122" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="122" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2197,180 +3715,193 @@
     <col min="6" max="6" width="75.54296875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>4</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
-        <v>2</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>3</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -2385,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FCE59F-777B-4156-8D89-388FA3FB33B8}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="71" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="H17" zoomScale="71" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2403,646 +3934,681 @@
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="24.1796875" customWidth="1"/>
     <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="234" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="303.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="286.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="234" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="300" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="203" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="203" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="303.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="286.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="K16" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>213</v>
+        <v>124</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="K17" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="B18" s="27"/>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="K18" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="K20" s="114" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3062,64 +4628,121 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A94E33-A2EB-425A-9081-1A28E1FEFD25}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
+    <col min="5" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
+        <v>259</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="20">
+        <v>45972</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{5E15911A-33E5-4699-9320-43CAD9C2A4A5}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{5E15911A-33E5-4699-9320-43CAD9C2A4A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3127,15 +4750,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11B9889-32CC-4A12-A5C1-C5566C826B69}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="C1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
     <col min="2" max="2" width="26.453125" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" customWidth="1"/>
@@ -3145,318 +4768,319 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>30</v>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>30</v>
+        <v>117</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3468,7 +5092,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3484,38 +5108,38 @@
     <col min="9" max="9" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="21" t="s">
-        <v>128</v>
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="29" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3531,10 +5155,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -3548,19 +5172,17 @@
       <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
         <v>0.125</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -3574,19 +5196,19 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -3600,13 +5222,13 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3618,6 +5240,1251 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726E7D0F-1854-4356-80A0-9C28A6187024}">
+  <dimension ref="B1:W97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="2:17" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="33"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="33"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="2:17" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="33"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="2:17" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="33"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
+    </row>
+    <row r="17" spans="2:23" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="33"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="2:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="2:23" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+    </row>
+    <row r="22" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="33"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+    </row>
+    <row r="23" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="33"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+    </row>
+    <row r="24" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+    </row>
+    <row r="27" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="39">
+        <v>18</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="39">
+        <v>18</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="39">
+        <v>17</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="39">
+        <v>1</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="41"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B33" s="38">
+        <v>18</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="38">
+        <v>18</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="38">
+        <v>17</v>
+      </c>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="59"/>
+    </row>
+    <row r="34" spans="2:23" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="62"/>
+    </row>
+    <row r="35" spans="2:23" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="2:23" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+    </row>
+    <row r="53" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D54" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="M54" s="23"/>
+    </row>
+    <row r="56" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="73"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" s="73"/>
+      <c r="M56" s="72"/>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D57" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+    </row>
+    <row r="58" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+    </row>
+    <row r="62" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" t="s">
+        <v>107</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D65" s="76"/>
+      <c r="E65" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+    </row>
+    <row r="67" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+    </row>
+    <row r="68" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="76"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" t="s">
+        <v>213</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D69" s="76"/>
+      <c r="E69" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="77"/>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+    </row>
+    <row r="73" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="G73" t="s">
+        <v>117</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+    </row>
+    <row r="74" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+    </row>
+    <row r="77" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C77" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="103"/>
+    </row>
+    <row r="78" spans="3:13" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
+    </row>
+    <row r="80" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="3:19" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C81" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="57"/>
+    </row>
+    <row r="82" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C82" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+    </row>
+    <row r="83" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C83" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="41"/>
+    </row>
+    <row r="84" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C84" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="41"/>
+    </row>
+    <row r="86" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="3:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="32"/>
+    </row>
+    <row r="88" spans="3:19" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C88" s="45"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="37"/>
+    </row>
+    <row r="89" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C90" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="105"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="41"/>
+    </row>
+    <row r="91" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="107"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="41"/>
+    </row>
+    <row r="92" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C92" s="110"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="41"/>
+    </row>
+    <row r="93" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C94" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="105"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="32"/>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C95" s="107"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="109"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="34"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C96" s="107"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="34"/>
+    </row>
+    <row r="97" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C97" s="110"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="F6:Q8"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="B12:E18"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="T33:W34"/>
+    <mergeCell ref="P33:S34"/>
+    <mergeCell ref="L33:O34"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="C81:L81"/>
+    <mergeCell ref="D57:D74"/>
+    <mergeCell ref="E57:E64"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="I87:S88"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="F94:O97"/>
+    <mergeCell ref="C94:E97"/>
+    <mergeCell ref="C90:E92"/>
+    <mergeCell ref="F90:Q90"/>
+    <mergeCell ref="F91:Q91"/>
+    <mergeCell ref="F92:Q92"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I82" r:id="rId1" xr:uid="{005BE202-8A6F-471A-8070-4DE0121B15D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{76a2ae5a-9f00-4f6b-95ed-5d33d77c4d61}" enabled="0" method="" siteId="{76a2ae5a-9f00-4f6b-95ed-5d33d77c4d61}" removed="1"/>
